--- a/data-raw/8f_cost_burden_disease.xlsx
+++ b/data-raw/8f_cost_burden_disease.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/cea-glaucoma-ai-screening/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3BEE94-4393-2842-B909-3D6D8A7E549A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48A46DC-0E79-DA45-92D2-318327D7B2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35300" yWindow="6700" windowWidth="27640" windowHeight="16440" xr2:uid="{D87C1428-1815-D049-A73F-EF0C17CE80CD}"/>
+    <workbookView xWindow="4340" yWindow="11220" windowWidth="28800" windowHeight="17500" xr2:uid="{D87C1428-1815-D049-A73F-EF0C17CE80CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>inpatient_services</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>general_practitioner</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
   <si>
     <t>type</t>
@@ -105,10 +108,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="#,##0.00_-\ [$€-1];[Red]#,##0.00\-\ [$€-1]"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +128,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -148,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -160,6 +171,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,199 +490,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2D911C-B066-4D4D-B60E-45CA815F5FC1}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>88.085917948717949</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5">
+        <v>307.78062678062679</v>
+      </c>
+      <c r="D2" s="5">
         <v>622.42324786324787</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="5">
         <v>137.33070085470086</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="5">
         <v>225.65228438383841</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="5">
         <v>118.75690656369446</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="5">
         <v>4661.9720797720793</v>
       </c>
-      <c r="H2">
+      <c r="I2" s="5">
         <v>2470.3179487179486</v>
       </c>
-      <c r="I2">
+      <c r="J2" s="5">
         <v>100.94232311209061</v>
       </c>
-      <c r="J2">
-        <v>153.04126825174825</v>
-      </c>
-      <c r="K2">
-        <v>15.66</v>
-      </c>
-      <c r="L2">
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>27.42</v>
+      </c>
+      <c r="M2" s="5">
         <v>19.413333333333334</v>
       </c>
-      <c r="M2">
+      <c r="N2" s="5">
         <v>1.9685470085470087</v>
       </c>
-      <c r="N2">
+      <c r="O2" s="5">
         <v>1040.2323874643873</v>
       </c>
-      <c r="O2">
+      <c r="P2" s="5">
         <v>169.242849002849</v>
       </c>
-      <c r="P2">
+      <c r="Q2" s="5">
         <v>707.99407407407409</v>
       </c>
-      <c r="Q2">
+      <c r="R2" s="5">
         <v>176.51646723646724</v>
       </c>
-      <c r="R2">
+      <c r="S2" s="5">
         <v>8349.3842837199918</v>
       </c>
-      <c r="S2">
-        <v>18705.32099253581</v>
+      <c r="T2" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>95.295690000000008</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
+        <v>325.69166666666666</v>
+      </c>
+      <c r="D3" s="5">
         <v>579.27800000000002</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="5">
         <v>105.7085</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="5">
         <v>186.23083030198185</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="5">
         <v>121.57738309458219</v>
       </c>
-      <c r="G3">
+      <c r="H3" s="5">
         <v>2870.7933333333331</v>
       </c>
-      <c r="H3">
+      <c r="I3" s="5">
         <v>2019.6</v>
       </c>
-      <c r="I3">
+      <c r="J3" s="5">
         <v>167.19332373294768</v>
       </c>
-      <c r="J3">
-        <v>85.265849454545446</v>
-      </c>
-      <c r="K3">
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
         <v>15.66</v>
       </c>
-      <c r="L3">
+      <c r="M3" s="5">
         <v>14.195999999999998</v>
       </c>
-      <c r="M3">
+      <c r="N3" s="5">
         <v>2.879</v>
       </c>
-      <c r="N3">
+      <c r="O3" s="5">
         <v>847.32853333333333</v>
       </c>
-      <c r="O3">
+      <c r="P3" s="5">
         <v>141.43866666666668</v>
       </c>
-      <c r="P3">
+      <c r="Q3" s="5">
         <v>784.93133333333333</v>
       </c>
-      <c r="Q3">
+      <c r="R3" s="5">
         <v>159.58693333333335</v>
       </c>
-      <c r="R3">
+      <c r="S3" s="5">
         <v>10062.020867460158</v>
       </c>
-      <c r="S3">
-        <v>17736.455017147469</v>
+      <c r="T3" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>

--- a/data-raw/8f_cost_burden_disease.xlsx
+++ b/data-raw/8f_cost_burden_disease.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/cea-glaucoma-ai-screening/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48A46DC-0E79-DA45-92D2-318327D7B2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC9B0FA-3FD4-D04B-A342-43D7A38213EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="11220" windowWidth="28800" windowHeight="17500" xr2:uid="{D87C1428-1815-D049-A73F-EF0C17CE80CD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{D87C1428-1815-D049-A73F-EF0C17CE80CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,19 +89,19 @@
     <t>productivity_disability</t>
   </si>
   <si>
-    <t>blind</t>
-  </si>
-  <si>
-    <t>vi</t>
+    <t>other</t>
+  </si>
+  <si>
+    <t>vi_mod</t>
+  </si>
+  <si>
+    <t>vi_sev</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
   <si>
     <t>general_practitioner</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>type</t>
   </si>
 </sst>
 </file>
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -174,6 +174,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -194,9 +197,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -234,7 +237,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -340,7 +343,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,7 +485,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2D911C-B066-4D4D-B60E-45CA815F5FC1}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -502,17 +505,18 @@
     <col min="2" max="3" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -567,70 +571,70 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
+      <c r="A2" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="5">
-        <v>88.085917948717949</v>
+        <v>102.89816838</v>
       </c>
       <c r="C2" s="5">
-        <v>307.78062678062679</v>
+        <v>302.17330000000004</v>
       </c>
       <c r="D2" s="5">
-        <v>622.42324786324787</v>
+        <v>448.85769599999998</v>
       </c>
       <c r="E2" s="5">
-        <v>137.33070085470086</v>
+        <v>86.004435599999994</v>
       </c>
       <c r="F2" s="5">
-        <v>225.65228438383841</v>
+        <v>103.16822442029093</v>
       </c>
       <c r="G2" s="5">
-        <v>118.75690656369446</v>
+        <v>117.75637962589533</v>
       </c>
       <c r="H2" s="5">
-        <v>4661.9720797720793</v>
+        <v>1673.2624000000001</v>
       </c>
       <c r="I2" s="5">
-        <v>2470.3179487179486</v>
+        <v>1156.2883199999999</v>
       </c>
       <c r="J2" s="5">
-        <v>100.94232311209061</v>
+        <v>195.33871899624728</v>
       </c>
       <c r="K2" s="5">
         <v>0</v>
       </c>
       <c r="L2" s="5">
-        <v>27.42</v>
+        <v>15.66</v>
       </c>
       <c r="M2" s="5">
-        <v>19.413333333333334</v>
+        <v>24.189983999999999</v>
       </c>
       <c r="N2" s="5">
-        <v>1.9685470085470087</v>
+        <v>1.951962</v>
       </c>
       <c r="O2" s="5">
-        <v>1040.2323874643873</v>
+        <v>587.42976319999991</v>
       </c>
       <c r="P2" s="5">
-        <v>169.242849002849</v>
+        <v>76.716332800000004</v>
       </c>
       <c r="Q2" s="5">
-        <v>707.99407407407409</v>
+        <v>475.56818399999997</v>
       </c>
       <c r="R2" s="5">
-        <v>176.51646723646724</v>
+        <v>152.5275584</v>
       </c>
       <c r="S2" s="5">
-        <v>8349.3842837199918</v>
+        <v>7630.3786967924143</v>
       </c>
       <c r="T2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
+      <c r="A3" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="5">
         <v>95.295690000000008</v>

--- a/data-raw/8f_cost_burden_disease.xlsx
+++ b/data-raw/8f_cost_burden_disease.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/cea-glaucoma-ai-screening/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC9B0FA-3FD4-D04B-A342-43D7A38213EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7585EDA3-B832-134C-9245-979C9274B2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{D87C1428-1815-D049-A73F-EF0C17CE80CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>inpatient_services</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>other</t>
-  </si>
-  <si>
-    <t>vi_mod</t>
   </si>
   <si>
     <t>vi_sev</t>
@@ -493,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2D911C-B066-4D4D-B60E-45CA815F5FC1}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -510,10 +507,10 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -575,142 +572,80 @@
         <v>18</v>
       </c>
       <c r="B2" s="5">
-        <v>102.89816838</v>
+        <v>95.295690000000008</v>
       </c>
       <c r="C2" s="5">
-        <v>302.17330000000004</v>
+        <v>325.69166666666666</v>
       </c>
       <c r="D2" s="5">
-        <v>448.85769599999998</v>
+        <v>579.27800000000002</v>
       </c>
       <c r="E2" s="5">
-        <v>86.004435599999994</v>
+        <v>105.7085</v>
       </c>
       <c r="F2" s="5">
-        <v>103.16822442029093</v>
+        <v>186.23083030198185</v>
       </c>
       <c r="G2" s="5">
-        <v>117.75637962589533</v>
+        <v>121.57738309458219</v>
       </c>
       <c r="H2" s="5">
-        <v>1673.2624000000001</v>
+        <v>2870.7933333333331</v>
       </c>
       <c r="I2" s="5">
-        <v>1156.2883199999999</v>
+        <v>2019.6</v>
       </c>
       <c r="J2" s="5">
-        <v>195.33871899624728</v>
+        <v>167.19332373294768</v>
       </c>
       <c r="K2" s="5">
         <v>0</v>
       </c>
       <c r="L2" s="5">
-        <v>15.66</v>
+        <v>0</v>
       </c>
       <c r="M2" s="5">
-        <v>24.189983999999999</v>
+        <v>14.195999999999998</v>
       </c>
       <c r="N2" s="5">
-        <v>1.951962</v>
+        <v>2.879</v>
       </c>
       <c r="O2" s="5">
-        <v>587.42976319999991</v>
+        <v>0</v>
       </c>
       <c r="P2" s="5">
-        <v>76.716332800000004</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="5">
-        <v>475.56818399999997</v>
+        <v>0</v>
       </c>
       <c r="R2" s="5">
-        <v>152.5275584</v>
+        <v>0</v>
       </c>
       <c r="S2" s="5">
-        <v>7630.3786967924143</v>
+        <v>0</v>
       </c>
       <c r="T2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5">
-        <v>95.295690000000008</v>
-      </c>
-      <c r="C3" s="5">
-        <v>325.69166666666666</v>
-      </c>
-      <c r="D3" s="5">
-        <v>579.27800000000002</v>
-      </c>
-      <c r="E3" s="5">
-        <v>105.7085</v>
-      </c>
-      <c r="F3" s="5">
-        <v>186.23083030198185</v>
-      </c>
-      <c r="G3" s="5">
-        <v>121.57738309458219</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2870.7933333333331</v>
-      </c>
-      <c r="I3" s="5">
-        <v>2019.6</v>
-      </c>
-      <c r="J3" s="5">
-        <v>167.19332373294768</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>15.66</v>
-      </c>
-      <c r="M3" s="5">
-        <v>14.195999999999998</v>
-      </c>
-      <c r="N3" s="5">
-        <v>2.879</v>
-      </c>
-      <c r="O3" s="5">
-        <v>847.32853333333333</v>
-      </c>
-      <c r="P3" s="5">
-        <v>141.43866666666668</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>784.93133333333333</v>
-      </c>
-      <c r="R3" s="5">
-        <v>159.58693333333335</v>
-      </c>
-      <c r="S3" s="5">
-        <v>10062.020867460158</v>
-      </c>
-      <c r="T3" s="5">
-        <v>0</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data-raw/8f_cost_burden_disease.xlsx
+++ b/data-raw/8f_cost_burden_disease.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/cea-glaucoma-ai-screening/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7585EDA3-B832-134C-9245-979C9274B2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD32FDBF-C326-FE40-B9E5-4E9F824740F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{D87C1428-1815-D049-A73F-EF0C17CE80CD}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="A2" sqref="A2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -611,19 +611,19 @@
         <v>2.879</v>
       </c>
       <c r="O2" s="5">
-        <v>0</v>
+        <v>847.32853333333333</v>
       </c>
       <c r="P2" s="5">
-        <v>0</v>
+        <v>141.43866666666668</v>
       </c>
       <c r="Q2" s="5">
-        <v>0</v>
+        <v>784.93133333333333</v>
       </c>
       <c r="R2" s="5">
-        <v>0</v>
+        <v>159.58693333333335</v>
       </c>
       <c r="S2" s="5">
-        <v>0</v>
+        <v>10062.020867460158</v>
       </c>
       <c r="T2" s="5">
         <v>0</v>

--- a/data-raw/8f_cost_burden_disease.xlsx
+++ b/data-raw/8f_cost_burden_disease.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/cea-glaucoma-ai-screening/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD32FDBF-C326-FE40-B9E5-4E9F824740F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940D6FEE-CEA7-9247-BB29-AE0292485035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{D87C1428-1815-D049-A73F-EF0C17CE80CD}"/>
+    <workbookView xWindow="26180" yWindow="4500" windowWidth="38400" windowHeight="21600" xr2:uid="{D87C1428-1815-D049-A73F-EF0C17CE80CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2D911C-B066-4D4D-B60E-45CA815F5FC1}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="5">
-        <v>0</v>
+        <v>15.66</v>
       </c>
       <c r="M2" s="5">
         <v>14.195999999999998</v>

--- a/data-raw/8f_cost_burden_disease.xlsx
+++ b/data-raw/8f_cost_burden_disease.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/cea-glaucoma-ai-screening/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940D6FEE-CEA7-9247-BB29-AE0292485035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339A7159-058A-364A-8196-D9A4FFC4B78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26180" yWindow="4500" windowWidth="38400" windowHeight="21600" xr2:uid="{D87C1428-1815-D049-A73F-EF0C17CE80CD}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D87C1428-1815-D049-A73F-EF0C17CE80CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>inpatient_services</t>
   </si>
@@ -59,9 +59,6 @@
     <t>vision_aids</t>
   </si>
   <si>
-    <t>measuring_devices</t>
-  </si>
-  <si>
     <t>transportation</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
   </si>
   <si>
     <t>productivity_absent</t>
-  </si>
-  <si>
-    <t>productivity_disability</t>
   </si>
   <si>
     <t>other</t>
@@ -490,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2D911C-B066-4D4D-B60E-45CA815F5FC1}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -502,18 +496,18 @@
     <col min="2" max="3" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -560,16 +554,10 @@
       <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="B2" s="5">
         <v>95.295690000000008</v>
@@ -599,40 +587,34 @@
         <v>167.19332373294768</v>
       </c>
       <c r="K2" s="5">
-        <v>0</v>
+        <v>15.66</v>
       </c>
       <c r="L2" s="5">
-        <v>15.66</v>
+        <v>14.195999999999998</v>
       </c>
       <c r="M2" s="5">
-        <v>14.195999999999998</v>
+        <v>2.879</v>
       </c>
       <c r="N2" s="5">
-        <v>2.879</v>
+        <v>847.32853333333333</v>
       </c>
       <c r="O2" s="5">
-        <v>847.32853333333333</v>
+        <v>141.43866666666668</v>
       </c>
       <c r="P2" s="5">
-        <v>141.43866666666668</v>
+        <v>784.93133333333333</v>
       </c>
       <c r="Q2" s="5">
-        <v>784.93133333333333</v>
+        <v>159.58693333333335</v>
       </c>
       <c r="R2" s="5">
-        <v>159.58693333333335</v>
-      </c>
-      <c r="S2" s="5">
         <v>10062.020867460158</v>
       </c>
-      <c r="T2" s="5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>

--- a/data-raw/8f_cost_burden_disease.xlsx
+++ b/data-raw/8f_cost_burden_disease.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/cea-glaucoma-ai-screening/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339A7159-058A-364A-8196-D9A4FFC4B78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD2D3FD-9E43-7A49-B403-EA4777A35501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D87C1428-1815-D049-A73F-EF0C17CE80CD}"/>
+    <workbookView xWindow="30400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D87C1428-1815-D049-A73F-EF0C17CE80CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,8 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00_-\ [$€-1];[Red]#,##0.00\-\ [$€-1]"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -150,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -162,9 +161,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -487,7 +483,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -500,7 +496,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -556,59 +552,59 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5">
-        <v>95.295690000000008</v>
-      </c>
-      <c r="C2" s="5">
-        <v>325.69166666666666</v>
-      </c>
-      <c r="D2" s="5">
-        <v>579.27800000000002</v>
-      </c>
-      <c r="E2" s="5">
-        <v>105.7085</v>
-      </c>
-      <c r="F2" s="5">
-        <v>186.23083030198185</v>
-      </c>
-      <c r="G2" s="5">
-        <v>121.57738309458219</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2870.7933333333331</v>
-      </c>
-      <c r="I2" s="5">
-        <v>2019.6</v>
-      </c>
-      <c r="J2" s="5">
-        <v>167.19332373294768</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="B2" s="1">
+        <v>102.89816838000002</v>
+      </c>
+      <c r="C2" s="1">
+        <v>302.17330000000004</v>
+      </c>
+      <c r="D2">
+        <v>448.85769599999998</v>
+      </c>
+      <c r="E2">
+        <v>86.004435599999994</v>
+      </c>
+      <c r="F2">
+        <v>103.16822442029093</v>
+      </c>
+      <c r="G2">
+        <v>117.75637962589533</v>
+      </c>
+      <c r="H2">
+        <v>1673.2624000000001</v>
+      </c>
+      <c r="I2">
+        <v>1156.2883199999999</v>
+      </c>
+      <c r="J2">
+        <v>195.33871899624728</v>
+      </c>
+      <c r="K2">
         <v>15.66</v>
       </c>
-      <c r="L2" s="5">
-        <v>14.195999999999998</v>
-      </c>
-      <c r="M2" s="5">
-        <v>2.879</v>
-      </c>
-      <c r="N2" s="5">
-        <v>847.32853333333333</v>
-      </c>
-      <c r="O2" s="5">
-        <v>141.43866666666668</v>
-      </c>
-      <c r="P2" s="5">
-        <v>784.93133333333333</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>159.58693333333335</v>
-      </c>
-      <c r="R2" s="5">
-        <v>10062.020867460158</v>
+      <c r="L2">
+        <v>24.189983999999999</v>
+      </c>
+      <c r="M2">
+        <v>1.951962</v>
+      </c>
+      <c r="N2">
+        <v>587.42976319999991</v>
+      </c>
+      <c r="O2">
+        <v>76.716332800000004</v>
+      </c>
+      <c r="P2">
+        <v>475.56818399999997</v>
+      </c>
+      <c r="Q2">
+        <v>152.5275584</v>
+      </c>
+      <c r="R2">
+        <v>7630.3786967924143</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">

--- a/data-raw/8f_cost_burden_disease.xlsx
+++ b/data-raw/8f_cost_burden_disease.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/cea-glaucoma-ai-screening/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD2D3FD-9E43-7A49-B403-EA4777A35501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675E6842-E0C9-2244-A6D4-F4F5E69EBF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D87C1428-1815-D049-A73F-EF0C17CE80CD}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>

--- a/data-raw/8f_cost_burden_disease.xlsx
+++ b/data-raw/8f_cost_burden_disease.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/cea-glaucoma-ai-screening/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675E6842-E0C9-2244-A6D4-F4F5E69EBF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01F1AC5-8807-854B-8CD0-A94211CF7C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D87C1428-1815-D049-A73F-EF0C17CE80CD}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="21780" windowHeight="17500" xr2:uid="{D87C1428-1815-D049-A73F-EF0C17CE80CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>inpatient_services</t>
   </si>
@@ -59,40 +59,43 @@
     <t>vision_aids</t>
   </si>
   <si>
+    <t>home_care_household</t>
+  </si>
+  <si>
+    <t>home_care_personal</t>
+  </si>
+  <si>
+    <t>informal_care_household</t>
+  </si>
+  <si>
+    <t>informal_care_personal</t>
+  </si>
+  <si>
+    <t>informal_care_communication</t>
+  </si>
+  <si>
+    <t>informal_care_companionship</t>
+  </si>
+  <si>
+    <t>productivity_absent</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>vi_sev</t>
+  </si>
+  <si>
+    <t>gp</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>transportation</t>
   </si>
   <si>
-    <t>home_care_household</t>
-  </si>
-  <si>
-    <t>home_care_personal</t>
-  </si>
-  <si>
-    <t>informal_care_household</t>
-  </si>
-  <si>
-    <t>informal_care_personal</t>
-  </si>
-  <si>
-    <t>informal_care_communication</t>
-  </si>
-  <si>
-    <t>informal_care_companionship</t>
-  </si>
-  <si>
-    <t>productivity_absent</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>vi_sev</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>general_practitioner</t>
+    <t>measuring_devices</t>
   </si>
 </sst>
 </file>
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2D911C-B066-4D4D-B60E-45CA815F5FC1}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -492,18 +495,18 @@
     <col min="2" max="3" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -527,33 +530,36 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>102.89816838000002</v>
@@ -583,34 +589,37 @@
         <v>195.33871899624728</v>
       </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>15.66</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>24.189983999999999</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1.951962</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>587.42976319999991</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>76.716332800000004</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>475.56818399999997</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>152.5275584</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>7630.3786967924143</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
